--- a/data/financial_statements/sofp/UNH.xlsx
+++ b/data/financial_statements/sofp/UNH.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2778 +590,2826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>27911000000</v>
+      </c>
+      <c r="C2">
         <v>42527000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>27964000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>28396000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>23907000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>23871000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22561000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22917000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>19781000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>20809000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>25593000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>24445000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>14245000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>15818000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>17269000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>15710000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>14324000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>13849000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>21860000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>22041000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>15490000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>19794000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>17970000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>19352000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>13275000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>15667000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>10974000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>13014000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>12911000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>9925000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>9802000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>10430000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>9236000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>9212000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>8289000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>9383000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>9213000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>10719000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>10097000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>13057000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>17681000000</v>
+      </c>
+      <c r="C3">
         <v>30731000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>31157000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>30865000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>28082000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>28232000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>27217000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27526000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>25404000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>25402000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>23976000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>24888000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>21462000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>21116000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>18175000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>20457000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>18250000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>18262000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>17646000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>18290000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>15830000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>15464000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>17770000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>16204000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>15651000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>14849000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>16701000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>14642000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>13324000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>14419000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>12194000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>10386000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>9750000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>9015000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>9424000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>7826000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>7050000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>6625000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6694000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>5799000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>23477000000</v>
+      </c>
+      <c r="C4">
         <v>4022000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4017000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4155000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4449000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4304000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4198000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4094000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4076000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3788000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3417000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2866000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3076000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3051000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2943000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2951000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3032000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2936000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2842000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2922000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3101000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3082000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2977000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2886000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3105000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2952000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2855000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2878000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2998000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2948000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2863000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2921000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2962000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2855000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2791000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2780000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2757000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2694000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>2613000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>2659000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>27911000000</v>
+      </c>
+      <c r="C5">
         <v>82937000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>68356000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>69029000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>61758000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>61610000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>58916000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>59508000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>53718000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>54821000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>58918000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>58807000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>42634000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>43541000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>42038000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>42815000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>38692000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>38754000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>46634000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>48353000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>37084000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>40921000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>41239000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>40989000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>33879000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>35768000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>33298000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>33745000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>31639000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>29935000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>27566000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>26774000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>23556000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>22963000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>22851000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>22364000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>20380000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>21194000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>20618000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>22717000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>9469000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9421000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9183000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8969000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8730000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8735000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8496000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>8626000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>8151000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>8126000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8173000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8704000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>8501000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>8681000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>8230000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>8458000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>8042000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>7906000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>8144000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>7013000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>6562000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>6324000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>6329000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>5901000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>5524000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>5189000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>4976000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4861000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>4532000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>4473000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>4245000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>4418000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>4309000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>4267000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>4065000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>4010000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3829000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3785000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3945000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>43728000000</v>
+      </c>
+      <c r="C7">
         <v>41557000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>42427000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>42353000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43114000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>44777000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>44061000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>42406000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>41242000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>39184000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>36778000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>36578000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>37209000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>36840000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>35696000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>33553000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>32510000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>31929000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>31237000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>29441000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>28341000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>27703000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>26397000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>25760000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>23868000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>23324000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>22211000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>20895000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>18792000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>18535000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>18996000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>19416000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>18827000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>19346000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>19274000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>19377000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>19605000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>18783000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>17976000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>17998000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>132908000000</v>
+      </c>
+      <c r="C8">
         <v>94689000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>95444000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>87466000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>85839000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>85871000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>86633000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>83004000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>82193000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>78461000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>78424000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>75501000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>76008000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>75726000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>71999000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>68624000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>68235000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>68201000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>64951000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>65883000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>63045000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>61859000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>60836000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>60994000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>56125000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>55902000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>55759000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>55155000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>52844000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>52085000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>37470000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>36223000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>36609000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>35936000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>36253000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>36017000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>35448000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>35770000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>35506000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>36119000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>14412000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>14524000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>13207000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12526000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>12057000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>11947000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>11757000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>11510000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10352000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10237000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10008000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>9334000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>9101000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>8786000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>7975000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>4326000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>4161000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>3883000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>3748000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>3575000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>3387000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3301000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>3085000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3037000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>3124000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>3146000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>3084000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>3118000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>3185000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2918000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>3061000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2972000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2872000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2821000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2799000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2439000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>2287000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2316000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2347000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>132908000000</v>
+      </c>
+      <c r="C10">
         <v>160127000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>161816000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>152209000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>150448000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>151435000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>151376000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>145663000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>143571000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>136148000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>133565000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>130260000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>131255000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>130168000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>125162000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>118382000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>113529000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>112333000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>107977000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>107216000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>101974000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>99511000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>96858000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>96168000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>88931000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>87874000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>86305000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>84110000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>79615000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>78337000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>63857000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>62945000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>62826000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>62463000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>62615000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>62258000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>61502000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>60669000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>59583000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>60409000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>245705000000</v>
+      </c>
+      <c r="C11">
         <v>243064000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>230172000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>221238000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>212206000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>213045000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>210292000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>205171000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>197289000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>190969000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>192483000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>189067000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>173889000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>173709000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>167200000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>161197000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>152221000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>151087000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>154611000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>155569000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>139058000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>140432000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>138097000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>137157000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>122810000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>123642000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>119603000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>117855000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>111254000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>108272000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>91423000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>89719000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>86382000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>85426000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>85466000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>84622000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>81882000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>81863000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>80201000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>83126000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>3110000000</v>
+      </c>
+      <c r="C12">
         <v>3229000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5592000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>6697000000</v>
-      </c>
-      <c r="E12">
-        <v>3620000000</v>
       </c>
       <c r="F12">
         <v>3620000000</v>
       </c>
       <c r="G12">
+        <v>3620000000</v>
+      </c>
+      <c r="H12">
         <v>3868000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8838000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4819000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>3899000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6156000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>15828000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3870000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>6387000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>7800000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3919000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1973000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1500000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2959000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>7379000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2857000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>4539000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>5739000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>7747000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>7193000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>7202000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>6364000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>6504000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>6634000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>5767000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2693000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2797000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1399000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>2925000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2117000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>2241000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1969000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1895000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1086000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>2390000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>27232000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>25145000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>25058000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>24643000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>24292000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>23013000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>22997000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>22495000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>21173000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>25423000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>22845000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>19005000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>18570000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>17128000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>16900000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>16705000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>18991000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>17527000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>18210000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>15180000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>15878000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>14514000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>13473000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>13361000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>12994000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>14366000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>13740000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>11994000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>11300000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>10901000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>10518000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>9247000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>8394000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>9625000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>9160000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>7458000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>7145000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>7046000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>6559000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>12847000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2212000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2675000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2571000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2556000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2365000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2612000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2842000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2391000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2299000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2509000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2622000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2500000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2019000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2530000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2396000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2388000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>7228000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>7683000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2269000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>6635000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>6115000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>6475000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1968000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>5730000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1567000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1901000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2142000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1731000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1508000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1734000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1972000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1691000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1482000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1838000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1600000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1525000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1242000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1386000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>57071000000</v>
+      </c>
+      <c r="C15">
         <v>28563000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>26771000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>25064000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>22975000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>23189000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>22180000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>21361000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>20392000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17967000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>16805000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>14652000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>14595000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14245000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>14474000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>14445000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>12244000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>13648000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>14999000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>14806000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>12286000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>13073000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>13043000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>12198000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>10339000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>8670000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>8447000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>8317000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>7798000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>7249000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>6772000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>6392000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>5965000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>5792000000</v>
-      </c>
-      <c r="AI15">
-        <v>5247000000</v>
       </c>
       <c r="AJ15">
         <v>5247000000</v>
       </c>
       <c r="AK15">
+        <v>5247000000</v>
+      </c>
+      <c r="AL15">
         <v>5279000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>5484000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>5176000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>5122000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>89237000000</v>
+      </c>
+      <c r="C16">
         <v>100935000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>88698000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>88170000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>78292000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>79575000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>76557000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>80641000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>72420000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>66597000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>69883000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>78606000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>61782000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>62641000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>62328000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>58933000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>53209000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>56377000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>62052000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>67667000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>50463000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>58088000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>57121000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>57543000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>49252000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>51096000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>47376000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>46285000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>42898000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>39953000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>35741000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>34978000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>30623000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>31130000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>30776000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>30716000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>27881000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>27867000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>26405000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>27183000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>54513000000</v>
+      </c>
+      <c r="C17">
         <v>45438000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>45799000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>40796000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>42383000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>43345000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>44348000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>37420000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>38648000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>39895000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>39901000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>35779000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>36808000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>38507000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>34473000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>34419000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>34581000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>32053000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>32096000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>28206000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>28835000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>24723000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>26197000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>26154000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>25777000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>26022000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>26834000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>27218000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>25331000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>26015000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>15378000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>15577000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>16007000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>14592000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>14630000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>14524000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>14891000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>14888000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>15543000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>15659000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>12847000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2212000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2675000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2571000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2556000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2365000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2612000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2842000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2391000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2299000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2509000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>1659000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2581000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2954000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3265000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3649000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3641000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3602000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3367000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3340000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3286000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3030000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2993000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2902000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2908000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2786000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2474000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2434000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2095000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2213000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2182000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2697000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2844000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2894000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2761000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2492000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2857000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3066000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3587000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>3593000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>1877000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2056000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2065000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1901000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2011000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1831000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>1796000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1881000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2076000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2321000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>4897000000</v>
+      </c>
+      <c r="C20">
         <v>4857000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4922000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1519000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1434000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1373000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1299000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1269000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2211000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1847000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1842000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1741000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1726000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1991000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2202000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2054000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1908000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1769000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1839000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1890000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2189000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2170000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1657000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1667000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>2012000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1937000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1744000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1824000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1736000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1571000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1615000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1452000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1388000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1386000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1303000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1268000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1175000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1130000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>769000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>2188000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>15608000000</v>
+      </c>
+      <c r="C21">
         <v>12111000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>11967000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>11671000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>11787000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>11844000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>12425000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12926000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>12315000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>11186000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>11056000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>10048000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10144000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>9912000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>9435000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>8554000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>5730000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>5858000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>5746000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>5557000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5556000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>5444000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4942000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>4904000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>4831000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>4541000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4505000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>4395000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>3977000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>4018000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>3792000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>3778000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>3845000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>3813000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>3811000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>3734000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>3990000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>4081000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>4027000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>4018000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>75018000000</v>
+      </c>
+      <c r="C22">
         <v>64065000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>65269000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>56940000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>58869000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>60211000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>61713000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>55217000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>56541000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>56268000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>56085000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>50598000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>51671000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>53312000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>49018000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>47813000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>44693000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>42114000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>41776000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>37866000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>38762000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>35034000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>35640000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>35619000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>35381000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>34992000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>35940000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>36503000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>34631000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>35197000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>22662000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>22863000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>23305000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>21692000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>21755000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>21357000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>21852000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>21980000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>22415000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>24186000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>164255000000</v>
+      </c>
+      <c r="C23">
         <v>165000000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>153967000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>145110000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>137161000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>139786000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>138270000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>135858000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>128961000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>122865000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>125968000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>129204000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>113453000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>115953000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>111346000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>106746000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>97902000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>98491000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>103828000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>105533000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>89225000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>93122000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>92761000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>93162000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>84633000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>86088000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>83316000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>82788000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>77529000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>75150000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>58403000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>57841000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>53928000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>52822000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>52531000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>52073000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>49733000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>49847000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>48820000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>51369000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>388000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>7000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1703000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1801000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>1661000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>1819000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>29000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>69000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>55000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>10000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
         <v>10000000</v>
@@ -3280,7 +3442,7 @@
         <v>10000000</v>
       </c>
       <c r="M25">
-        <v>9000000</v>
+        <v>10000000</v>
       </c>
       <c r="N25">
         <v>9000000</v>
@@ -3289,7 +3451,7 @@
         <v>9000000</v>
       </c>
       <c r="P25">
-        <v>10000000</v>
+        <v>9000000</v>
       </c>
       <c r="Q25">
         <v>10000000</v>
@@ -3363,549 +3525,555 @@
       <c r="AN25">
         <v>10000000</v>
       </c>
+      <c r="AO25">
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>83722000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>80540000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>78782000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>77134000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>75124000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>73090000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>71220000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>69295000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>69715000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>67776000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>62327000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>61178000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>58696000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>56367000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>55472000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>55846000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>54386000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>52363000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>50494000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>48730000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>45840000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>44081000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>42521000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>40945000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>39945000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>38579000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>37963000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>37125000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>36382000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>35262000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>34153000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>33836000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>33578000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>33215000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>33112000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>33047000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>32593000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>31906000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>31359000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>78064000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>76205000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>76128000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>75045000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>73259000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>72022000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>69313000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>68328000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>68104000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>66515000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>59863000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>60436000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>57756000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>55854000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>54451000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>54319000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>52596000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>50783000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>50036000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>49833000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>47310000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>45336000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>43995000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>38177000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>37554000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>36287000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>35067000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>33725000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>33122000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>33020000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>31878000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>32454000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>32604000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>32935000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>32549000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>32149000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>32016000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>31381000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>31757000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>81450000000</v>
+      </c>
+      <c r="C28">
         <v>78064000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>76205000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>76128000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>75045000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>73259000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>72022000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>69313000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>68328000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>68104000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>66515000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>59863000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>60436000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>57756000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>55854000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>54451000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>54319000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>52596000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>50783000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>50036000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>49833000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>47310000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>45336000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>43995000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>38177000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>37554000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>36287000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>35067000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>33725000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>33122000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>33020000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>31878000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>32454000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>32604000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>32935000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>32549000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>32149000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>32016000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>31381000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>31757000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>245705000000</v>
+      </c>
+      <c r="C29">
         <v>243064000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>230172000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>221238000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>212206000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>213045000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>210292000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>205171000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>197289000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>190969000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>192483000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>189067000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>173889000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>173709000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>167200000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>161197000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>152221000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>151087000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>154611000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>155569000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>139058000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>140432000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>138097000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>137157000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>122810000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>123642000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>119603000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>117855000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>111254000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>108272000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>91423000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>89719000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>86382000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>85426000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>85466000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>84622000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>81882000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>81863000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>80201000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>83126000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>935000000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>935000000</v>
       </c>
       <c r="D30">
+        <v>935000000</v>
+      </c>
+      <c r="E30">
         <v>939000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>941000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>942000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>943000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>944000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>946000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>949000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>950000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>947000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>948000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>947000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>948000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>953000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>960000000</v>
-      </c>
-      <c r="R30">
-        <v>962000000</v>
       </c>
       <c r="S30">
         <v>962000000</v>
@@ -3914,429 +4082,441 @@
         <v>962000000</v>
       </c>
       <c r="U30">
-        <v>969000000</v>
+        <v>962000000</v>
       </c>
       <c r="V30">
         <v>969000000</v>
       </c>
       <c r="W30">
-        <v>965000000</v>
+        <v>969000000</v>
       </c>
       <c r="X30">
         <v>965000000</v>
       </c>
       <c r="Y30">
-        <v>952000000</v>
+        <v>965000000</v>
       </c>
       <c r="Z30">
         <v>952000000</v>
       </c>
       <c r="AA30">
+        <v>952000000</v>
+      </c>
+      <c r="AB30">
         <v>951000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>954000000</v>
-      </c>
-      <c r="AC30">
-        <v>953000000</v>
       </c>
       <c r="AD30">
         <v>953000000</v>
       </c>
       <c r="AE30">
-        <v>952000000</v>
+        <v>953000000</v>
       </c>
       <c r="AF30">
         <v>952000000</v>
       </c>
       <c r="AG30">
+        <v>952000000</v>
+      </c>
+      <c r="AH30">
         <v>954000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>962000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>973000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>984000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>988000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1019000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1006000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1013000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-51458000000</v>
+      </c>
+      <c r="C31">
         <v>-16625000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-19239000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-11338000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-10794000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-12612000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-14611000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-13691000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-13865000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-10357000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-11909000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-15638000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-15572000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-17970000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-16145000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-14173000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-13916000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-15605000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-14168000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-15847000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-13212000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-14549000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-15500000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-16999000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-17948000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-18348000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-19472000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-20088000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-19119000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>-18963000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>-4450000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-4345000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>-4155000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-3332000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-3318000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-3468000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-3299000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-3754000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-4125000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-4362000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>26602000000</v>
+      </c>
+      <c r="C32">
         <v>2911000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>17835000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>12400000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>18476000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>19474000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>21787000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>14503000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>18867000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>19086000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>14308000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>11334000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>22563000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>22689000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>17204000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>18709000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>20257000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>18204000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>10236000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>6165000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>13345000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>4929000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>8227000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>6802000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>12502000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>10355000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>15860000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>14204000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>12420000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>16090000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>5576000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>5147000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>6771000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>5380000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>6341000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>5141000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>5678000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>4169000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>5446000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2602000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>54513000000</v>
+      </c>
+      <c r="C33">
         <v>45438000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>45799000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>40796000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>42383000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>43345000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>44348000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>37420000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>38648000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>39895000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>39901000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>35779000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>36808000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>38507000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>34473000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>34419000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>34581000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>32053000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>32096000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>28206000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>28835000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>24723000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>26197000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>26154000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>25777000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>26022000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>26834000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>27218000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>25331000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>26015000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>15378000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>15577000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>16007000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>14592000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>14630000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>14524000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>14891000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>14888000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>15543000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>15659000000</v>
       </c>
     </row>
